--- a/biology/Neurosciences/ADALINE/ADALINE.xlsx
+++ b/biology/Neurosciences/ADALINE/ADALINE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ADALINE (Adaptive Linear Neuron ou plus tard Adaptive Linear Element) est un réseau de neurones artificiels simple-couche.
 Il a été développé par le professeur Bernard Widrow et un de ses étudiants, Ted Hoff, de l'université Stanford en 1960. Adaline s'appuie sur le neurone formel de McCulloch et Pitts. Il se compose d'un poids synaptique, d'un biais (une constante qu'on ajoute à l'entrée) et d'une fonction de sommation.
@@ -514,7 +526,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adaline est un réseau neuronal simple-couche, avec plusieurs nœuds, chacun acceptant plusieurs entrées et générant une sortie. Étant données les variables suivantes :
 x, le vecteur d'entrée
@@ -590,7 +604,9 @@
           <t>Algorithme d'apprentissage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Posons :
         η
